--- a/data.xlsx
+++ b/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/program/python/py_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\git\test\python\py_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="17565" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="テスト1" sheetId="1" r:id="rId1"/>
+    <sheet name="気温" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,131 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>テストA-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストA-2</t>
-  </si>
-  <si>
-    <t>テストA-3</t>
-  </si>
-  <si>
-    <t>テストA-4</t>
-  </si>
-  <si>
-    <t>テストA-5</t>
-  </si>
-  <si>
-    <t>テストA-6</t>
-  </si>
-  <si>
-    <t>テストA-7</t>
-  </si>
-  <si>
-    <t>テストA-8</t>
-  </si>
-  <si>
-    <t>テストA-9</t>
-  </si>
-  <si>
-    <t>テストA-10</t>
-  </si>
-  <si>
-    <t>テストB-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストB-2</t>
-  </si>
-  <si>
-    <t>テストB-3</t>
-  </si>
-  <si>
-    <t>テストB-4</t>
-  </si>
-  <si>
-    <t>テストB-5</t>
-  </si>
-  <si>
-    <t>テストB-6</t>
-  </si>
-  <si>
-    <t>テストB-7</t>
-  </si>
-  <si>
-    <t>テストB-8</t>
-  </si>
-  <si>
-    <t>テストB-9</t>
-  </si>
-  <si>
-    <t>テストB-10</t>
-  </si>
-  <si>
-    <t>テストC-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストC-2</t>
-  </si>
-  <si>
-    <t>テストC-3</t>
-  </si>
-  <si>
-    <t>テストC-4</t>
-  </si>
-  <si>
-    <t>テストC-5</t>
-  </si>
-  <si>
-    <t>テストC-6</t>
-  </si>
-  <si>
-    <t>テストC-7</t>
-  </si>
-  <si>
-    <t>テストC-8</t>
-  </si>
-  <si>
-    <t>テストC-9</t>
-  </si>
-  <si>
-    <t>テストC-10</t>
-  </si>
-  <si>
-    <t>テストD-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストD-2</t>
-  </si>
-  <si>
-    <t>テストD-3</t>
-  </si>
-  <si>
-    <t>テストD-4</t>
-  </si>
-  <si>
-    <t>テストD-5</t>
-  </si>
-  <si>
-    <t>テストD-6</t>
-  </si>
-  <si>
-    <t>テストD-7</t>
-  </si>
-  <si>
-    <t>テストD-8</t>
-  </si>
-  <si>
-    <t>テストD-9</t>
-  </si>
-  <si>
-    <t>テストD-10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>AAA</t>
     <phoneticPr fontId="1"/>
@@ -178,12 +54,53 @@
     <t>43t3</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>山口県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマグチケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低気温</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最高気温</t>
+    <rPh sb="0" eb="2">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,8 +137,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -231,6 +155,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -498,183 +425,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="19.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>43071</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>43072</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>43073</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>43074</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>43075</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>43076</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>43077</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>43078</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43079</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>43080</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43081</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>43082</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>43083</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43084</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>43085</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>43086</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>43087</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43088</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43089</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43090</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>43091</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>43092</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>43093</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>43094</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>43095</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>43096</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>43097</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>43098</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="19.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>124</v>
       </c>
@@ -682,10 +1030,10 @@
         <v>21412</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>24235</v>
       </c>
@@ -693,10 +1041,10 @@
         <v>21432</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>353</v>
       </c>
@@ -704,7 +1052,7 @@
         <v>5325</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -714,12 +1062,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="19.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -141,10 +141,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,26 +429,26 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="19.5"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3"/>
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>8</v>
       </c>
